--- a/fastqFiles/fastq_fullrun_hbrown_12.04.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_12.04.19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FCB248-7AF7-7C41-BDA1-D0EB54B063CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A627A7-E55B-DF42-870B-8768B3D659EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="16840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,7 @@
   <dimension ref="A1:Z41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/fastqFiles/fastq_fullrun_hbrown_12.04.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_12.04.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A627A7-E55B-DF42-870B-8768B3D659EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D52819A-DB09-224E-91A0-F04BBABB9CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33580" windowHeight="16840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="56">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>runNumber</t>
-  </si>
-  <si>
-    <t>laneNumber</t>
   </si>
   <si>
     <t>sequencerModel</t>
@@ -587,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z41"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -595,10 +592,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1024" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,21 +617,19 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -648,14 +643,13 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -663,28 +657,28 @@
       <c r="D2" s="5">
         <v>4058</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7">
+        <v>2.02</v>
+      </c>
+      <c r="I2" s="7">
+        <v>1.3406999241505499</v>
+      </c>
+      <c r="J2">
+        <v>14269297</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="7">
-        <v>2.02</v>
-      </c>
-      <c r="J2" s="7">
-        <v>1.3406999241505499</v>
-      </c>
-      <c r="K2">
-        <v>14269297</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -698,14 +692,13 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -713,34 +706,34 @@
       <c r="D3">
         <v>4058</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
+      <c r="H3">
+        <v>9.6199999999999992</v>
       </c>
       <c r="I3">
-        <v>9.6199999999999992</v>
+        <v>1.43959626949881</v>
       </c>
       <c r="J3">
-        <v>1.43959626949881</v>
-      </c>
-      <c r="K3">
         <v>14443344</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -748,34 +741,34 @@
       <c r="D4">
         <v>4058</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
+      <c r="H4">
+        <v>41.3</v>
       </c>
       <c r="I4">
-        <v>41.3</v>
+        <v>1.40096977794158</v>
       </c>
       <c r="J4">
-        <v>1.40096977794158</v>
-      </c>
-      <c r="K4">
         <v>14252359</v>
       </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -783,34 +776,34 @@
       <c r="D5">
         <v>4058</v>
       </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
+      <c r="H5">
+        <v>2.17</v>
       </c>
       <c r="I5">
-        <v>2.17</v>
+        <v>4.8725909000596097</v>
       </c>
       <c r="J5">
-        <v>4.8725909000596097</v>
-      </c>
-      <c r="K5">
         <v>10853878</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -818,34 +811,34 @@
       <c r="D6">
         <v>4058</v>
       </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
+      <c r="H6">
+        <v>45.8</v>
       </c>
       <c r="I6">
-        <v>45.8</v>
+        <v>1.13172497208783</v>
       </c>
       <c r="J6">
-        <v>1.13172497208783</v>
-      </c>
-      <c r="K6">
         <v>11360157</v>
       </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -853,34 +846,34 @@
       <c r="D7">
         <v>4058</v>
       </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
+      <c r="H7">
+        <v>2.4500000000000002</v>
       </c>
       <c r="I7">
-        <v>2.4500000000000002</v>
+        <v>3.6922954569738402</v>
       </c>
       <c r="J7">
-        <v>3.6922954569738402</v>
-      </c>
-      <c r="K7">
         <v>12562314</v>
       </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -888,34 +881,34 @@
       <c r="D8">
         <v>4058</v>
       </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
+      <c r="H8">
+        <v>24.8</v>
       </c>
       <c r="I8">
-        <v>24.8</v>
+        <v>1.1427827884254</v>
       </c>
       <c r="J8">
-        <v>1.1427827884254</v>
-      </c>
-      <c r="K8">
         <v>12760486</v>
       </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -923,34 +916,34 @@
       <c r="D9">
         <v>4058</v>
       </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
+      <c r="H9">
+        <v>7.21</v>
       </c>
       <c r="I9">
-        <v>7.21</v>
+        <v>1.59942238821592</v>
       </c>
       <c r="J9">
-        <v>1.59942238821592</v>
-      </c>
-      <c r="K9">
         <v>13185481</v>
       </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -958,34 +951,34 @@
       <c r="D10">
         <v>4058</v>
       </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
+      <c r="H10">
+        <v>46.2</v>
       </c>
       <c r="I10">
-        <v>46.2</v>
+        <v>1.21124233251016</v>
       </c>
       <c r="J10">
-        <v>1.21124233251016</v>
-      </c>
-      <c r="K10">
         <v>11793683</v>
       </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -993,209 +986,209 @@
       <c r="D11">
         <v>4058</v>
       </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
-        <v>16</v>
+      <c r="H11">
+        <v>2.33</v>
       </c>
       <c r="I11">
-        <v>2.33</v>
+        <v>4.5790702738125697</v>
       </c>
       <c r="J11">
-        <v>4.5790702738125697</v>
-      </c>
-      <c r="K11">
         <v>12669581</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>4058</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I12">
+        <v>1.3729987086986799</v>
+      </c>
+      <c r="J12">
+        <v>13515318</v>
+      </c>
+      <c r="K12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>4058</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J12">
-        <v>1.3729987086986799</v>
-      </c>
-      <c r="K12">
-        <v>13515318</v>
-      </c>
-      <c r="L12" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>4058</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>12.1</v>
+      </c>
+      <c r="I13">
+        <v>0.86144432918023395</v>
+      </c>
+      <c r="J13">
+        <v>12464510</v>
+      </c>
+      <c r="K13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>4058</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13">
-        <v>12.1</v>
-      </c>
-      <c r="J13">
-        <v>0.86144432918023395</v>
-      </c>
-      <c r="K13">
-        <v>12464510</v>
-      </c>
-      <c r="L13" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>4058</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>1.19</v>
+      </c>
+      <c r="I14">
+        <v>1.70997154681842</v>
+      </c>
+      <c r="J14">
+        <v>11006150</v>
+      </c>
+      <c r="K14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>4058</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14">
-        <v>1.19</v>
-      </c>
-      <c r="J14">
-        <v>1.70997154681842</v>
-      </c>
-      <c r="K14">
-        <v>11006150</v>
-      </c>
-      <c r="L14" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>4058</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>10.5</v>
+      </c>
+      <c r="I15">
+        <v>1.2177857603389499</v>
+      </c>
+      <c r="J15">
+        <v>12178861</v>
+      </c>
+      <c r="K15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="D15">
-        <v>4058</v>
-      </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15">
-        <v>10.5</v>
-      </c>
-      <c r="J15">
-        <v>1.2177857603389499</v>
-      </c>
-      <c r="K15">
-        <v>12178861</v>
-      </c>
-      <c r="L15" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>4058</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>1.2455742606701099</v>
+      </c>
+      <c r="J16">
+        <v>11005460</v>
+      </c>
+      <c r="K16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>4058</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16">
-        <v>21</v>
-      </c>
-      <c r="J16">
-        <v>1.2455742606701099</v>
-      </c>
-      <c r="K16">
-        <v>11005460</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1203,34 +1196,34 @@
       <c r="D17">
         <v>4058</v>
       </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
-        <v>16</v>
+      <c r="H17">
+        <v>2.42</v>
       </c>
       <c r="I17">
-        <v>2.42</v>
+        <v>4.9530502285187499</v>
       </c>
       <c r="J17">
-        <v>4.9530502285187499</v>
-      </c>
-      <c r="K17">
         <v>12674470</v>
       </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1238,34 +1231,34 @@
       <c r="D18">
         <v>4058</v>
       </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
-        <v>16</v>
+      <c r="H18">
+        <v>3.41</v>
       </c>
       <c r="I18">
-        <v>3.41</v>
+        <v>3.5407477458617</v>
       </c>
       <c r="J18">
-        <v>3.5407477458617</v>
-      </c>
-      <c r="K18">
         <v>13627175</v>
       </c>
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1273,34 +1266,34 @@
       <c r="D19">
         <v>4058</v>
       </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" t="s">
-        <v>16</v>
+      <c r="H19">
+        <v>12.9</v>
       </c>
       <c r="I19">
-        <v>12.9</v>
+        <v>0.84485761071835597</v>
       </c>
       <c r="J19">
-        <v>0.84485761071835597</v>
-      </c>
-      <c r="K19">
         <v>12709091</v>
       </c>
-      <c r="L19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1308,34 +1301,34 @@
       <c r="D20">
         <v>4058</v>
       </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" t="s">
-        <v>16</v>
+      <c r="H20">
+        <v>4.8600000000000003</v>
       </c>
       <c r="I20">
-        <v>4.8600000000000003</v>
+        <v>2.47785857649543</v>
       </c>
       <c r="J20">
-        <v>2.47785857649543</v>
-      </c>
-      <c r="K20">
         <v>13014905</v>
       </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1343,34 +1336,34 @@
       <c r="D21">
         <v>4058</v>
       </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" t="s">
-        <v>16</v>
+      <c r="H21">
+        <v>9.82</v>
       </c>
       <c r="I21">
-        <v>9.82</v>
+        <v>1.0976482830174701</v>
       </c>
       <c r="J21">
-        <v>1.0976482830174701</v>
-      </c>
-      <c r="K21">
         <v>12545932</v>
       </c>
-      <c r="L21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1378,34 +1371,34 @@
       <c r="D22">
         <v>4058</v>
       </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" t="s">
-        <v>16</v>
+      <c r="H22">
+        <v>0.39600000000000002</v>
       </c>
       <c r="I22">
-        <v>0.39600000000000002</v>
+        <v>12.1969557195572</v>
       </c>
       <c r="J22">
-        <v>12.1969557195572</v>
-      </c>
-      <c r="K22">
         <v>8537218</v>
       </c>
-      <c r="L22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1413,34 +1406,34 @@
       <c r="D23">
         <v>4058</v>
       </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="H23" t="s">
-        <v>16</v>
+      <c r="H23">
+        <v>0.44500000000000001</v>
       </c>
       <c r="I23">
-        <v>0.44500000000000001</v>
+        <v>9.6037929509853495</v>
       </c>
       <c r="J23">
-        <v>9.6037929509853495</v>
-      </c>
-      <c r="K23">
         <v>13281353</v>
       </c>
-      <c r="L23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1448,34 +1441,34 @@
       <c r="D24">
         <v>4058</v>
       </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" t="s">
-        <v>16</v>
+      <c r="H24">
+        <v>0.84099999999999997</v>
       </c>
       <c r="I24">
-        <v>0.84099999999999997</v>
+        <v>3.35556254413842</v>
       </c>
       <c r="J24">
-        <v>3.35556254413842</v>
-      </c>
-      <c r="K24">
         <v>12084025</v>
       </c>
-      <c r="L24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1483,34 +1476,34 @@
       <c r="D25">
         <v>4058</v>
       </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" t="s">
-        <v>16</v>
+      <c r="H25">
+        <v>3.01</v>
       </c>
       <c r="I25">
-        <v>3.01</v>
+        <v>3.8714007161902599</v>
       </c>
       <c r="J25">
-        <v>3.8714007161902599</v>
-      </c>
-      <c r="K25">
         <v>11248926</v>
       </c>
-      <c r="L25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1518,34 +1511,34 @@
       <c r="D26">
         <v>4058</v>
       </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" t="s">
-        <v>16</v>
+      <c r="H26">
+        <v>67.2</v>
       </c>
       <c r="I26">
-        <v>67.2</v>
+        <v>1.29149112375775</v>
       </c>
       <c r="J26">
-        <v>1.29149112375775</v>
-      </c>
-      <c r="K26">
         <v>14772759</v>
       </c>
-      <c r="L26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1553,34 +1546,34 @@
       <c r="D27">
         <v>4058</v>
       </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27" t="s">
-        <v>16</v>
+      <c r="H27">
+        <v>6</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>1.83021871539313</v>
       </c>
       <c r="J27">
-        <v>1.83021871539313</v>
-      </c>
-      <c r="K27">
         <v>8255805</v>
       </c>
-      <c r="L27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1588,34 +1581,34 @@
       <c r="D28">
         <v>4058</v>
       </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="H28" t="s">
-        <v>16</v>
+      <c r="H28">
+        <v>1.79</v>
       </c>
       <c r="I28">
-        <v>1.79</v>
+        <v>1.5866683015402601</v>
       </c>
       <c r="J28">
-        <v>1.5866683015402601</v>
-      </c>
-      <c r="K28">
         <v>11995527</v>
       </c>
-      <c r="L28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1623,34 +1616,34 @@
       <c r="D29">
         <v>4058</v>
       </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
+      <c r="H29">
+        <v>4.97</v>
       </c>
       <c r="I29">
-        <v>4.97</v>
+        <v>2.2690060111466099</v>
       </c>
       <c r="J29">
-        <v>2.2690060111466099</v>
-      </c>
-      <c r="K29">
         <v>13990957</v>
       </c>
-      <c r="L29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1658,34 +1651,34 @@
       <c r="D30">
         <v>4058</v>
       </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" t="s">
         <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" t="s">
-        <v>16</v>
+      <c r="H30">
+        <v>5.32</v>
       </c>
       <c r="I30">
-        <v>5.32</v>
+        <v>2.78208022489788</v>
       </c>
       <c r="J30">
-        <v>2.78208022489788</v>
-      </c>
-      <c r="K30">
         <v>16623191</v>
       </c>
-      <c r="L30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1693,34 +1686,34 @@
       <c r="D31">
         <v>4058</v>
       </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
+      <c r="H31">
+        <v>9.07</v>
       </c>
       <c r="I31">
-        <v>9.07</v>
+        <v>1.8743016697796699</v>
       </c>
       <c r="J31">
-        <v>1.8743016697796699</v>
-      </c>
-      <c r="K31">
         <v>18283289</v>
       </c>
-      <c r="L31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1728,34 +1721,34 @@
       <c r="D32">
         <v>4058</v>
       </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" t="s">
-        <v>16</v>
+      <c r="H32">
+        <v>28.9</v>
       </c>
       <c r="I32">
-        <v>28.9</v>
+        <v>1.17429139635465</v>
       </c>
       <c r="J32">
-        <v>1.17429139635465</v>
-      </c>
-      <c r="K32">
         <v>8961473</v>
       </c>
-      <c r="L32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1763,34 +1756,34 @@
       <c r="D33">
         <v>4058</v>
       </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="H33" t="s">
-        <v>16</v>
+      <c r="H33">
+        <v>71.599999999999994</v>
       </c>
       <c r="I33">
-        <v>71.599999999999994</v>
+        <v>1.21230465635465</v>
       </c>
       <c r="J33">
-        <v>1.21230465635465</v>
-      </c>
-      <c r="K33">
         <v>11298555</v>
       </c>
-      <c r="L33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1798,34 +1791,34 @@
       <c r="D34">
         <v>4058</v>
       </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" t="s">
-        <v>16</v>
+      <c r="H34">
+        <v>10.1</v>
       </c>
       <c r="I34">
-        <v>10.1</v>
+        <v>1.2818616458035501</v>
       </c>
       <c r="J34">
-        <v>1.2818616458035501</v>
-      </c>
-      <c r="K34">
         <v>12516946</v>
       </c>
-      <c r="L34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1833,34 +1826,34 @@
       <c r="D35">
         <v>4058</v>
       </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="H35" t="s">
-        <v>16</v>
+      <c r="H35">
+        <v>15.6</v>
       </c>
       <c r="I35">
-        <v>15.6</v>
+        <v>0.72514088161175405</v>
       </c>
       <c r="J35">
-        <v>0.72514088161175405</v>
-      </c>
-      <c r="K35">
         <v>10015692</v>
       </c>
-      <c r="L35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1868,34 +1861,34 @@
       <c r="D36">
         <v>4058</v>
       </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="H36" t="s">
-        <v>16</v>
+      <c r="H36">
+        <v>0.41</v>
       </c>
       <c r="I36">
-        <v>0.41</v>
+        <v>14.790588521400799</v>
       </c>
       <c r="J36">
-        <v>14.790588521400799</v>
-      </c>
-      <c r="K36">
         <v>9217470</v>
       </c>
-      <c r="L36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>36</v>
@@ -1903,34 +1896,34 @@
       <c r="D37">
         <v>4058</v>
       </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="H37" t="s">
-        <v>16</v>
+      <c r="H37">
+        <v>0.505</v>
       </c>
       <c r="I37">
-        <v>0.505</v>
+        <v>7.2080804968237402</v>
       </c>
       <c r="J37">
-        <v>7.2080804968237402</v>
-      </c>
-      <c r="K37">
         <v>11737498</v>
       </c>
-      <c r="L37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>37</v>
@@ -1938,34 +1931,34 @@
       <c r="D38">
         <v>4058</v>
       </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38" t="s">
-        <v>16</v>
+      <c r="H38">
+        <v>0.56999999999999995</v>
       </c>
       <c r="I38">
-        <v>0.56999999999999995</v>
+        <v>6.5407919642088999</v>
       </c>
       <c r="J38">
-        <v>6.5407919642088999</v>
-      </c>
-      <c r="K38">
         <v>11261908</v>
       </c>
-      <c r="L38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1973,34 +1966,34 @@
       <c r="D39">
         <v>4058</v>
       </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
       <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="G39" t="s">
         <v>15</v>
       </c>
-      <c r="H39" t="s">
-        <v>16</v>
+      <c r="H39">
+        <v>127</v>
       </c>
       <c r="I39">
-        <v>127</v>
+        <v>1.1683360227447399</v>
       </c>
       <c r="J39">
-        <v>1.1683360227447399</v>
-      </c>
-      <c r="K39">
         <v>11709916</v>
       </c>
-      <c r="L39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>39</v>
@@ -2008,34 +2001,34 @@
       <c r="D40">
         <v>4058</v>
       </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" t="s">
         <v>15</v>
       </c>
-      <c r="H40" t="s">
-        <v>16</v>
+      <c r="H40">
+        <v>2.13</v>
       </c>
       <c r="I40">
-        <v>2.13</v>
+        <v>5.2249806357787598</v>
       </c>
       <c r="J40">
-        <v>5.2249806357787598</v>
-      </c>
-      <c r="K40">
         <v>14146185</v>
       </c>
-      <c r="L40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>40</v>
@@ -2043,26 +2036,26 @@
       <c r="D41">
         <v>4058</v>
       </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
       <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" t="s">
         <v>15</v>
       </c>
-      <c r="H41" t="s">
-        <v>16</v>
+      <c r="H41">
+        <v>39.299999999999997</v>
       </c>
       <c r="I41">
-        <v>39.299999999999997</v>
+        <v>1.7007522371364701</v>
       </c>
       <c r="J41">
-        <v>1.7007522371364701</v>
-      </c>
-      <c r="K41">
         <v>9564020</v>
       </c>
-      <c r="L41" t="s">
-        <v>56</v>
+      <c r="K41" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
